--- a/Mythpract a/Assets/Excel/ExcelPlayerData.xlsx
+++ b/Mythpract a/Assets/Excel/ExcelPlayerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Unity\GitHub\Mythplact\Mythpract a\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A18F0D-CD6F-438E-AFCF-B68BA28A6A91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BA3FDC-A4D0-490F-89CF-944F63FCC4E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3910" xr2:uid="{4D6E78CE-F9F7-4AB3-A81D-5D8F36939820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>maxSpeed</t>
     <phoneticPr fontId="1"/>
@@ -164,6 +164,257 @@
   </si>
   <si>
     <t>skillKajibaAtk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大速度</t>
+    <rPh sb="0" eb="4">
+      <t>サイダイソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ力</t>
+    <rPh sb="4" eb="5">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブルジャンプ力</t>
+    <rPh sb="7" eb="8">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ため攻撃の溜め時間</t>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタミナの最大値</t>
+    <rPh sb="5" eb="8">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタミナの回復速度</t>
+    <rPh sb="5" eb="9">
+      <t>カイフクソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブリンクの消費スタミナ</t>
+    <rPh sb="5" eb="7">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガードの消費スタミナ(毎時)</t>
+    <rPh sb="4" eb="6">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>マイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブリンクの距離</t>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブリンクのクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガードのクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャストガードの許容時間</t>
+    <rPh sb="8" eb="12">
+      <t>キョヨウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノックバック時間</t>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ下攻撃のCT</t>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ上攻撃のCT</t>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常攻撃攻撃力</t>
+    <rPh sb="0" eb="4">
+      <t>ツウジョウコウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ攻撃攻撃力</t>
+    <rPh sb="4" eb="9">
+      <t>コウゲキコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ上攻撃攻撃力</t>
+    <rPh sb="4" eb="7">
+      <t>ウエコウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ下攻撃攻撃力</t>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>溜め攻撃攻撃力</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="7">
+      <t>コウゲキコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリート攻撃力</t>
+    <rPh sb="4" eb="7">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スラッシュのクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリートのクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリートの持続時間</t>
+    <rPh sb="5" eb="9">
+      <t>ジゾクジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローンウォーリアのクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローンウォーリアの持続時間</t>
+    <rPh sb="9" eb="13">
+      <t>ジゾクジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリームのクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディスピレイションストライクのクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローンウォーリアの初期攻撃力</t>
+    <rPh sb="9" eb="14">
+      <t>ショキコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローンウォーリアの一回の追加攻撃力</t>
+    <rPh sb="9" eb="11">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>ツイカコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローンウォーリアのコンボの許容時間</t>
+    <rPh sb="13" eb="17">
+      <t>キョヨウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブリンク距離スキル</t>
+    <rPh sb="4" eb="6">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャストガードスキル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピードスキル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火事場攻撃力アップ</t>
+    <rPh sb="0" eb="6">
+      <t>カジバコウゲキリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -528,49 +779,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B6FF9F-3E10-462B-ADB7-BAFA0A84746F}">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.08203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.4140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="20.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.9140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.9140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.9140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.9140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="34" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -785,6 +1033,113 @@
       </c>
       <c r="AI2">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Mythpract a/Assets/Excel/ExcelPlayerData.xlsx
+++ b/Mythpract a/Assets/Excel/ExcelPlayerData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Unity\GitHub\Mythplact\Mythpract a\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SourceTree\Mythpract a\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BA3FDC-A4D0-490F-89CF-944F63FCC4E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF7EAF5-A4B7-4666-8875-C9F284B28E55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3910" xr2:uid="{4D6E78CE-F9F7-4AB3-A81D-5D8F36939820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>maxSpeed</t>
     <phoneticPr fontId="1"/>
@@ -414,6 +414,28 @@
     <t>火事場攻撃力アップ</t>
     <rPh sb="0" eb="6">
       <t>カジバコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sheriffAtk_Power</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェリフ攻撃力</t>
+    <rPh sb="4" eb="7">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slashAtk_Power</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スラッシュ攻撃力</t>
+    <rPh sb="5" eb="8">
+      <t>コウゲキリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -461,9 +483,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B6FF9F-3E10-462B-ADB7-BAFA0A84746F}">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -804,24 +832,25 @@
     <col min="16" max="16" width="16.58203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.25" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.9140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.9140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.08203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.08203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="34" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" customWidth="1"/>
+    <col min="23" max="23" width="19.58203125" customWidth="1"/>
+    <col min="24" max="24" width="23.9140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.9140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="34" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -879,56 +908,62 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>12</v>
       </c>
@@ -986,56 +1021,62 @@
       <c r="S2">
         <v>100</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="2">
         <v>300</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="2">
         <v>200</v>
       </c>
       <c r="V2">
+        <v>200</v>
+      </c>
+      <c r="W2">
+        <v>120</v>
+      </c>
+      <c r="X2">
         <v>8</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>5</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>0.3</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>10</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>10</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>2</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>5</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>1.5</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>0.1</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>2</v>
-      </c>
-      <c r="AF2">
-        <v>10</v>
-      </c>
-      <c r="AG2">
-        <v>0.2</v>
       </c>
       <c r="AH2">
         <v>10</v>
       </c>
       <c r="AI2">
+        <v>0.2</v>
+      </c>
+      <c r="AJ2">
+        <v>10</v>
+      </c>
+      <c r="AK2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1093,52 +1134,58 @@
       <c r="S4" t="s">
         <v>53</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s">
         <v>55</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
         <v>56</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>57</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>58</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>59</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>60</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>61</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>62</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>63</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>64</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>65</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AI4" t="s">
         <v>67</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AJ4" t="s">
         <v>68</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AK4" t="s">
         <v>69</v>
       </c>
     </row>
